--- a/biology/Zoologie/Etruridelphis/Etruridelphis.xlsx
+++ b/biology/Zoologie/Etruridelphis/Etruridelphis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etruridelphis giulii
-Etruridelphis est un genre éteint de cétacés qui a vécu lors du Pliocène. Ses restes fossiles ont été mis au jour en Italie. Une seule espèce est connue, Etruridelphis giulii[1].
+Etruridelphis est un genre éteint de cétacés qui a vécu lors du Pliocène. Ses restes fossiles ont été mis au jour en Italie. Une seule espèce est connue, Etruridelphis giulii.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Etruridelphis est composé de « Etruri[a] », l'ancien nom latin de la Toscane où les restes fossiles ont été découverts, et du latin delphis, « dauphin »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Etruridelphis est composé de « Etruri[a] », l'ancien nom latin de la Toscane où les restes fossiles ont été découverts, et du latin delphis, « dauphin ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Giovanni Bianucci, Stefano Claudio Vaiani et Simone Casati, « A new delphinid record (Odontoceti, Cetacea) from the Early Pliocene of Tuscany (Central Italy): systematics and biostratigraphic considerations », Neues Jahrbuch für Geologie und Paläontologie, E. Schweizerbart (d), vol. 254, no 3,‎ 1er novembre 2009, p. 275-292 (ISSN 0077-7749, 0028-3630 et 2700-2012, OCLC 1759691 et 481642941, DOI 10.1127/0077-7749/2009/0018, lire en ligne)</t>
         </is>
